--- a/database/sidis/expdata/5040.xlsx
+++ b/database/sidis/expdata/5040.xlsx
@@ -1,46 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26E77B44-55A1-4A0E-82CF-B99C7D95A677}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E0EA4-BBEF-7E48-A667-EA5698E1A519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -55,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
   <si>
     <t>col</t>
   </si>
@@ -115,6 +107,12 @@
   </si>
   <si>
     <t>deuteron</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -466,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J66" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +521,14 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -544,7 +548,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G2">
-        <f>(E2+F2)/2</f>
+        <f t="shared" ref="G2:G25" si="0">(E2+F2)/2</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H2">
@@ -578,7 +582,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -598,7 +602,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G3">
-        <f>(E3+F3)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H3">
@@ -632,7 +636,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -652,7 +656,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G4">
-        <f>(E4+F4)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H4">
@@ -686,7 +690,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -706,7 +710,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G5">
-        <f>(E5+F5)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H5">
@@ -740,7 +744,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -760,7 +764,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G6">
-        <f>(E6+F6)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H6">
@@ -794,7 +798,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -814,7 +818,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G7">
-        <f>(E7+F7)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H7">
@@ -848,7 +852,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -868,7 +872,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G8">
-        <f>(E8+F8)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H8">
@@ -902,7 +906,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -922,7 +926,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G9">
-        <f>(E9+F9)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H9">
@@ -956,7 +960,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -976,7 +980,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G10">
-        <f>(E10+F10)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H10">
@@ -1010,7 +1014,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G11">
-        <f>(E11+F11)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H11">
@@ -1064,7 +1068,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G12">
-        <f>(E12+F12)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H12">
@@ -1118,7 +1122,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G13">
-        <f>(E13+F13)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H13">
@@ -1172,7 +1176,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G14">
-        <f>(E14+F14)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H14">
@@ -1226,7 +1230,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G15">
-        <f>(E15+F15)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H15">
@@ -1280,7 +1284,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G16">
-        <f>(E16+F16)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H16">
@@ -1354,7 +1358,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G17">
-        <f>(E17+F17)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H17">
@@ -1408,7 +1412,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G18">
-        <f>(E18+F18)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H18">
@@ -1462,7 +1466,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G19">
-        <f>(E19+F19)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H19">
@@ -1516,7 +1520,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G20">
-        <f>(E20+F20)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H20">
@@ -1570,7 +1574,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G21">
-        <f>(E21+F21)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H21">
@@ -1624,7 +1628,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G22">
-        <f>(E22+F22)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H22">
@@ -1678,7 +1682,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G23">
-        <f>(E23+F23)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H23">
@@ -1732,7 +1736,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G24">
-        <f>(E24+F24)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H24">
@@ -1786,7 +1790,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G25">
-        <f>(E25+F25)/2</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H25">

--- a/database/sidis/expdata/5040.xlsx
+++ b/database/sidis/expdata/5040.xlsx
@@ -1,38 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E0EA4-BBEF-7E48-A667-EA5698E1A519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{235AB7E6-B331-41FE-9501-37C5ECBDFB68}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="21">
   <si>
     <t>col</t>
   </si>
@@ -97,6 +105,9 @@
     <t>sys_u</t>
   </si>
   <si>
+    <t>Q2</t>
+  </si>
+  <si>
     <t>COMPASS</t>
   </si>
   <si>
@@ -107,12 +118,6 @@
   </si>
   <si>
     <t>deuteron</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -464,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,24 +527,21 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3.0000000000000001E-3</v>
@@ -548,8 +550,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G25" si="0">(E2+F2)/2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -558,8 +559,7 @@
         <v>0.25</v>
       </c>
       <c r="J2">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
         <v>0.1</v>
@@ -568,8 +568,7 @@
         <v>0.3</v>
       </c>
       <c r="M2">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N2">
         <v>3.9E-2</v>
@@ -581,19 +580,22 @@
         <f t="array" aca="1" ref="P2" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3.0000000000000001E-3</v>
@@ -602,8 +604,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H3">
         <v>0.2</v>
@@ -612,8 +613,7 @@
         <v>0.25</v>
       </c>
       <c r="J3">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K3">
         <v>0.3</v>
@@ -622,7 +622,6 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
         <v>0.4</v>
       </c>
       <c r="N3">
@@ -635,19 +634,22 @@
         <f t="array" aca="1" ref="P3" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Q3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3.0000000000000001E-3</v>
@@ -656,8 +658,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H4">
         <v>0.2</v>
@@ -666,8 +667,7 @@
         <v>0.25</v>
       </c>
       <c r="J4">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
         <v>0.5</v>
@@ -676,8 +676,7 @@
         <v>0.64</v>
       </c>
       <c r="M4">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N4">
         <v>1.2999999999999999E-2</v>
@@ -689,19 +688,22 @@
         <f t="array" aca="1" ref="P4" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3.0000000000000001E-3</v>
@@ -710,8 +712,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H5">
         <v>0.2</v>
@@ -720,8 +721,7 @@
         <v>0.25</v>
       </c>
       <c r="J5">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K5">
         <v>0.64</v>
@@ -730,8 +730,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N5">
         <v>1.9E-2</v>
@@ -743,19 +742,22 @@
         <f t="array" aca="1" ref="P5" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3.0000000000000001E-3</v>
@@ -764,8 +766,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -774,8 +775,7 @@
         <v>0.32</v>
       </c>
       <c r="J6">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K6">
         <v>0.1</v>
@@ -784,8 +784,7 @@
         <v>0.3</v>
       </c>
       <c r="M6">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N6">
         <v>0.01</v>
@@ -797,19 +796,22 @@
         <f t="array" aca="1" ref="P6" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3.0000000000000001E-3</v>
@@ -818,8 +820,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -828,8 +829,7 @@
         <v>0.32</v>
       </c>
       <c r="J7">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K7">
         <v>0.3</v>
@@ -838,7 +838,7 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" ref="M7:M70" si="0">(K7+L7)/2</f>
         <v>0.4</v>
       </c>
       <c r="N7">
@@ -851,19 +851,22 @@
         <f t="array" aca="1" ref="P7" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3.0000000000000001E-3</v>
@@ -872,8 +875,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -882,8 +884,7 @@
         <v>0.32</v>
       </c>
       <c r="J8">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K8">
         <v>0.5</v>
@@ -892,7 +893,7 @@
         <v>0.64</v>
       </c>
       <c r="M8">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N8">
@@ -905,19 +906,22 @@
         <f t="array" aca="1" ref="P8" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3.0000000000000001E-3</v>
@@ -926,8 +930,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -936,8 +939,7 @@
         <v>0.32</v>
       </c>
       <c r="J9">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K9">
         <v>0.64</v>
@@ -946,8 +948,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N9">
         <v>-4.0000000000000001E-3</v>
@@ -959,19 +960,22 @@
         <f t="array" aca="1" ref="P9" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3.0000000000000001E-3</v>
@@ -980,8 +984,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H10">
         <v>0.32</v>
@@ -990,7 +993,7 @@
         <v>0.4</v>
       </c>
       <c r="J10">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" ref="J10:J73" si="1">(H10+I10)/2</f>
         <v>0.36</v>
       </c>
       <c r="K10">
@@ -1000,8 +1003,7 @@
         <v>0.3</v>
       </c>
       <c r="M10">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N10">
         <v>-0.03</v>
@@ -1013,19 +1015,22 @@
         <f t="array" aca="1" ref="P10" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3.0000000000000001E-3</v>
@@ -1034,8 +1039,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H11">
         <v>0.32</v>
@@ -1044,7 +1048,7 @@
         <v>0.4</v>
       </c>
       <c r="J11">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K11">
@@ -1054,7 +1058,6 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
         <v>0.4</v>
       </c>
       <c r="N11">
@@ -1067,19 +1070,22 @@
         <f t="array" aca="1" ref="P11" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3.0000000000000001E-3</v>
@@ -1088,8 +1094,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H12">
         <v>0.32</v>
@@ -1098,7 +1103,7 @@
         <v>0.4</v>
       </c>
       <c r="J12">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K12">
@@ -1108,7 +1113,7 @@
         <v>0.64</v>
       </c>
       <c r="M12">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N12">
@@ -1121,19 +1126,22 @@
         <f t="array" aca="1" ref="P12" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3.0000000000000001E-3</v>
@@ -1142,8 +1150,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H13">
         <v>0.32</v>
@@ -1152,7 +1159,7 @@
         <v>0.4</v>
       </c>
       <c r="J13">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K13">
@@ -1162,8 +1169,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N13">
         <v>4.2999999999999997E-2</v>
@@ -1175,19 +1181,22 @@
         <f t="array" aca="1" ref="P13" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3.0000000000000001E-3</v>
@@ -1196,8 +1205,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H14">
         <v>0.4</v>
@@ -1206,8 +1214,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K14">
         <v>0.1</v>
@@ -1216,8 +1223,7 @@
         <v>0.3</v>
       </c>
       <c r="M14">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N14">
         <v>5.2999999999999999E-2</v>
@@ -1229,19 +1235,22 @@
         <f t="array" aca="1" ref="P14" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>3.0000000000000001E-3</v>
@@ -1250,8 +1259,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H15">
         <v>0.4</v>
@@ -1260,8 +1268,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J15">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K15">
         <v>0.3</v>
@@ -1270,7 +1277,7 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N15">
@@ -1283,19 +1290,22 @@
         <f t="array" aca="1" ref="P15" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3.0000000000000001E-3</v>
@@ -1304,8 +1314,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H16">
         <v>0.4</v>
@@ -1314,8 +1323,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J16">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K16">
         <v>0.5</v>
@@ -1324,7 +1332,7 @@
         <v>0.64</v>
       </c>
       <c r="M16">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N16">
@@ -1337,19 +1345,22 @@
         <f t="array" aca="1" ref="P16" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3.0000000000000001E-3</v>
@@ -1358,8 +1369,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H17">
         <v>0.4</v>
@@ -1368,8 +1378,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J17">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K17">
         <v>0.64</v>
@@ -1378,8 +1387,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N17">
         <v>1.9E-2</v>
@@ -1391,19 +1399,22 @@
         <f t="array" aca="1" ref="P17" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3.0000000000000001E-3</v>
@@ -1412,8 +1423,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H18">
         <v>0.55000000000000004</v>
@@ -1422,8 +1432,7 @@
         <v>0.7</v>
       </c>
       <c r="J18">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K18">
         <v>0.1</v>
@@ -1432,8 +1441,7 @@
         <v>0.3</v>
       </c>
       <c r="M18">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N18">
         <v>0.22500000000000001</v>
@@ -1445,19 +1453,22 @@
         <f t="array" aca="1" ref="P18" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>3.0000000000000001E-3</v>
@@ -1466,8 +1477,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H19">
         <v>0.55000000000000004</v>
@@ -1476,8 +1486,7 @@
         <v>0.7</v>
       </c>
       <c r="J19">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K19">
         <v>0.3</v>
@@ -1486,7 +1495,6 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
         <v>0.4</v>
       </c>
       <c r="N19">
@@ -1499,19 +1507,22 @@
         <f t="array" aca="1" ref="P19" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3.0000000000000001E-3</v>
@@ -1520,8 +1531,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H20">
         <v>0.55000000000000004</v>
@@ -1530,8 +1540,7 @@
         <v>0.7</v>
       </c>
       <c r="J20">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K20">
         <v>0.5</v>
@@ -1540,7 +1549,7 @@
         <v>0.64</v>
       </c>
       <c r="M20">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N20">
@@ -1553,19 +1562,22 @@
         <f t="array" aca="1" ref="P20" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.104</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>3.0000000000000001E-3</v>
@@ -1574,8 +1586,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H21">
         <v>0.55000000000000004</v>
@@ -1584,8 +1595,7 @@
         <v>0.7</v>
       </c>
       <c r="J21">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K21">
         <v>0.64</v>
@@ -1594,8 +1604,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N21">
         <v>-0.13400000000000001</v>
@@ -1607,19 +1616,22 @@
         <f t="array" aca="1" ref="P21" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3.0000000000000001E-3</v>
@@ -1628,8 +1640,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H22">
         <v>0.7</v>
@@ -1638,8 +1649,7 @@
         <v>0.85</v>
       </c>
       <c r="J22">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K22">
         <v>0.1</v>
@@ -1648,8 +1658,7 @@
         <v>0.3</v>
       </c>
       <c r="M22">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N22">
         <v>0.17399999999999999</v>
@@ -1661,19 +1670,22 @@
         <f t="array" aca="1" ref="P22" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>3.0000000000000001E-3</v>
@@ -1682,8 +1694,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H23">
         <v>0.7</v>
@@ -1692,8 +1703,7 @@
         <v>0.85</v>
       </c>
       <c r="J23">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K23">
         <v>0.3</v>
@@ -1702,8 +1712,7 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="N23">
         <v>9.8000000000000004E-2</v>
@@ -1715,19 +1724,22 @@
         <f t="array" aca="1" ref="P23" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.122</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>3.0000000000000001E-3</v>
@@ -1736,8 +1748,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H24">
         <v>0.7</v>
@@ -1746,8 +1757,7 @@
         <v>0.85</v>
       </c>
       <c r="J24">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -1756,8 +1766,7 @@
         <v>0.64</v>
       </c>
       <c r="M24">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N24">
         <v>2.1000000000000001E-2</v>
@@ -1769,19 +1778,22 @@
         <f t="array" aca="1" ref="P24" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>3.0000000000000001E-3</v>
@@ -1790,8 +1802,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H25">
         <v>0.7</v>
@@ -1800,8 +1811,7 @@
         <v>0.85</v>
       </c>
       <c r="J25">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K25">
         <v>0.64</v>
@@ -1810,8 +1820,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N25">
         <v>-0.182</v>
@@ -1823,19 +1832,22 @@
         <f t="array" aca="1" ref="P25" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1.2E-2</v>
@@ -1843,8 +1855,8 @@
       <c r="F26">
         <v>0.02</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" aca="1" ref="G26" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G26">
+        <f t="shared" ref="G26:G49" si="2">(E26+F26)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H26">
@@ -1854,8 +1866,7 @@
         <v>0.25</v>
       </c>
       <c r="J26">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K26">
         <v>0.1</v>
@@ -1864,8 +1875,7 @@
         <v>0.3</v>
       </c>
       <c r="M26">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N26">
         <v>8.9999999999999993E-3</v>
@@ -1877,19 +1887,22 @@
         <f t="array" aca="1" ref="P26" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>1.2E-2</v>
@@ -1897,8 +1910,8 @@
       <c r="F27">
         <v>0.02</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" aca="1" ref="G27" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H27">
@@ -1908,8 +1921,7 @@
         <v>0.25</v>
       </c>
       <c r="J27">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K27">
         <v>0.3</v>
@@ -1918,7 +1930,7 @@
         <v>0.5</v>
       </c>
       <c r="M27">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N27">
@@ -1931,19 +1943,22 @@
         <f t="array" aca="1" ref="P27" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>1.2E-2</v>
@@ -1951,8 +1966,8 @@
       <c r="F28">
         <v>0.02</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" aca="1" ref="G28" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H28">
@@ -1962,8 +1977,7 @@
         <v>0.25</v>
       </c>
       <c r="J28">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K28">
         <v>0.5</v>
@@ -1972,8 +1986,7 @@
         <v>0.64</v>
       </c>
       <c r="M28">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N28">
         <v>7.0000000000000001E-3</v>
@@ -1985,19 +1998,22 @@
         <f t="array" aca="1" ref="P28" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>1.2E-2</v>
@@ -2005,8 +2021,8 @@
       <c r="F29">
         <v>0.02</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" aca="1" ref="G29" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H29">
@@ -2016,8 +2032,7 @@
         <v>0.25</v>
       </c>
       <c r="J29">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K29">
         <v>0.64</v>
@@ -2026,8 +2041,7 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N29">
         <v>2.5000000000000001E-2</v>
@@ -2039,19 +2053,22 @@
         <f t="array" aca="1" ref="P29" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>1.2E-2</v>
@@ -2059,8 +2076,8 @@
       <c r="F30">
         <v>0.02</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" aca="1" ref="G30" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H30">
@@ -2070,8 +2087,7 @@
         <v>0.32</v>
       </c>
       <c r="J30">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K30">
         <v>0.1</v>
@@ -2080,8 +2096,7 @@
         <v>0.3</v>
       </c>
       <c r="M30">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N30">
         <v>2E-3</v>
@@ -2093,19 +2108,22 @@
         <f t="array" aca="1" ref="P30" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>1.2E-2</v>
@@ -2113,8 +2131,8 @@
       <c r="F31">
         <v>0.02</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" aca="1" ref="G31" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G31">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H31">
@@ -2124,8 +2142,7 @@
         <v>0.32</v>
       </c>
       <c r="J31">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K31">
         <v>0.3</v>
@@ -2134,7 +2151,7 @@
         <v>0.5</v>
       </c>
       <c r="M31">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N31">
@@ -2147,19 +2164,22 @@
         <f t="array" aca="1" ref="P31" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>1.2E-2</v>
@@ -2167,8 +2187,8 @@
       <c r="F32">
         <v>0.02</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" aca="1" ref="G32" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G32">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H32">
@@ -2178,8 +2198,7 @@
         <v>0.32</v>
       </c>
       <c r="J32">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K32">
         <v>0.5</v>
@@ -2188,7 +2207,7 @@
         <v>0.64</v>
       </c>
       <c r="M32">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N32">
@@ -2201,19 +2220,22 @@
         <f t="array" aca="1" ref="P32" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>1.2E-2</v>
@@ -2221,8 +2243,8 @@
       <c r="F33">
         <v>0.02</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" aca="1" ref="G33" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G33">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H33">
@@ -2232,8 +2254,7 @@
         <v>0.32</v>
       </c>
       <c r="J33">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K33">
         <v>0.64</v>
@@ -2242,8 +2263,7 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N33">
         <v>5.7000000000000002E-2</v>
@@ -2255,19 +2275,22 @@
         <f t="array" aca="1" ref="P33" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>1.2E-2</v>
@@ -2275,8 +2298,8 @@
       <c r="F34">
         <v>0.02</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" aca="1" ref="G34" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G34">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H34">
@@ -2286,7 +2309,7 @@
         <v>0.4</v>
       </c>
       <c r="J34">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K34">
@@ -2296,8 +2319,7 @@
         <v>0.3</v>
       </c>
       <c r="M34">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N34">
         <v>5.6000000000000001E-2</v>
@@ -2309,19 +2331,22 @@
         <f t="array" aca="1" ref="P34" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>1.2E-2</v>
@@ -2329,8 +2354,8 @@
       <c r="F35">
         <v>0.02</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" aca="1" ref="G35" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G35">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H35">
@@ -2340,7 +2365,7 @@
         <v>0.4</v>
       </c>
       <c r="J35">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K35">
@@ -2350,7 +2375,7 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N35">
@@ -2363,19 +2388,22 @@
         <f t="array" aca="1" ref="P35" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>1.2E-2</v>
@@ -2383,8 +2411,8 @@
       <c r="F36">
         <v>0.02</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" aca="1" ref="G36" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G36">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H36">
@@ -2394,7 +2422,7 @@
         <v>0.4</v>
       </c>
       <c r="J36">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K36">
@@ -2404,7 +2432,7 @@
         <v>0.64</v>
       </c>
       <c r="M36">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N36">
@@ -2417,19 +2445,22 @@
         <f t="array" aca="1" ref="P36" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>1.2E-2</v>
@@ -2437,8 +2468,8 @@
       <c r="F37">
         <v>0.02</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" aca="1" ref="G37" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G37">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H37">
@@ -2448,7 +2479,7 @@
         <v>0.4</v>
       </c>
       <c r="J37">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K37">
@@ -2458,8 +2489,7 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N37">
         <v>2.5000000000000001E-2</v>
@@ -2471,19 +2501,22 @@
         <f t="array" aca="1" ref="P37" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1.2E-2</v>
@@ -2491,8 +2524,8 @@
       <c r="F38">
         <v>0.02</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" aca="1" ref="G38" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G38">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H38">
@@ -2502,8 +2535,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J38">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K38">
         <v>0.1</v>
@@ -2512,8 +2544,7 @@
         <v>0.3</v>
       </c>
       <c r="M38">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N38">
         <v>0.05</v>
@@ -2525,19 +2556,22 @@
         <f t="array" aca="1" ref="P38" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>1.2E-2</v>
@@ -2545,8 +2579,8 @@
       <c r="F39">
         <v>0.02</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" aca="1" ref="G39" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G39">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H39">
@@ -2556,8 +2590,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J39">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K39">
         <v>0.3</v>
@@ -2566,7 +2599,7 @@
         <v>0.5</v>
       </c>
       <c r="M39">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N39">
@@ -2579,19 +2612,22 @@
         <f t="array" aca="1" ref="P39" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>1.2E-2</v>
@@ -2599,8 +2635,8 @@
       <c r="F40">
         <v>0.02</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" aca="1" ref="G40" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G40">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H40">
@@ -2610,8 +2646,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J40">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K40">
         <v>0.5</v>
@@ -2620,7 +2655,7 @@
         <v>0.64</v>
       </c>
       <c r="M40">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N40">
@@ -2633,19 +2668,22 @@
         <f t="array" aca="1" ref="P40" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>1.2E-2</v>
@@ -2653,8 +2691,8 @@
       <c r="F41">
         <v>0.02</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" aca="1" ref="G41" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G41">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H41">
@@ -2664,8 +2702,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J41">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K41">
         <v>0.64</v>
@@ -2674,8 +2711,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N41">
         <v>8.0000000000000002E-3</v>
@@ -2687,19 +2723,22 @@
         <f t="array" aca="1" ref="P41" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>1.2E-2</v>
@@ -2707,8 +2746,8 @@
       <c r="F42">
         <v>0.02</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" aca="1" ref="G42" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G42">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H42">
@@ -2718,8 +2757,7 @@
         <v>0.7</v>
       </c>
       <c r="J42">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K42">
         <v>0.1</v>
@@ -2728,8 +2766,7 @@
         <v>0.3</v>
       </c>
       <c r="M42">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N42">
         <v>0.11700000000000001</v>
@@ -2741,19 +2778,22 @@
         <f t="array" aca="1" ref="P42" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>1.2E-2</v>
@@ -2761,8 +2801,8 @@
       <c r="F43">
         <v>0.02</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" aca="1" ref="G43" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G43">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H43">
@@ -2772,8 +2812,7 @@
         <v>0.7</v>
       </c>
       <c r="J43">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K43">
         <v>0.3</v>
@@ -2782,7 +2821,6 @@
         <v>0.5</v>
       </c>
       <c r="M43">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
         <v>0.4</v>
       </c>
       <c r="N43">
@@ -2795,19 +2833,22 @@
         <f t="array" aca="1" ref="P43" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>1.2E-2</v>
@@ -2815,8 +2856,8 @@
       <c r="F44">
         <v>0.02</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" aca="1" ref="G44" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G44">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H44">
@@ -2826,8 +2867,7 @@
         <v>0.7</v>
       </c>
       <c r="J44">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K44">
         <v>0.5</v>
@@ -2836,7 +2876,7 @@
         <v>0.64</v>
       </c>
       <c r="M44">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N44">
@@ -2849,19 +2889,22 @@
         <f t="array" aca="1" ref="P44" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>1.2E-2</v>
@@ -2869,8 +2912,8 @@
       <c r="F45">
         <v>0.02</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" aca="1" ref="G45" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G45">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H45">
@@ -2880,8 +2923,7 @@
         <v>0.7</v>
       </c>
       <c r="J45">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K45">
         <v>0.64</v>
@@ -2890,8 +2932,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N45">
         <v>-7.8E-2</v>
@@ -2903,19 +2944,22 @@
         <f t="array" aca="1" ref="P45" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>1.2E-2</v>
@@ -2923,8 +2967,8 @@
       <c r="F46">
         <v>0.02</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" aca="1" ref="G46" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G46">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H46">
@@ -2934,8 +2978,7 @@
         <v>0.85</v>
       </c>
       <c r="J46">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K46">
         <v>0.1</v>
@@ -2944,8 +2987,7 @@
         <v>0.3</v>
       </c>
       <c r="M46">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N46">
         <v>0.13800000000000001</v>
@@ -2957,19 +2999,22 @@
         <f t="array" aca="1" ref="P46" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>1.2E-2</v>
@@ -2977,8 +3022,8 @@
       <c r="F47">
         <v>0.02</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" aca="1" ref="G47" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G47">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H47">
@@ -2988,8 +3033,7 @@
         <v>0.85</v>
       </c>
       <c r="J47">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K47">
         <v>0.3</v>
@@ -2998,8 +3042,7 @@
         <v>0.5</v>
       </c>
       <c r="M47">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="N47">
         <v>0.113</v>
@@ -3011,19 +3054,22 @@
         <f t="array" aca="1" ref="P47" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>1.2E-2</v>
@@ -3031,8 +3077,8 @@
       <c r="F48">
         <v>0.02</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" aca="1" ref="G48" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G48">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H48">
@@ -3042,8 +3088,7 @@
         <v>0.85</v>
       </c>
       <c r="J48">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K48">
         <v>0.5</v>
@@ -3052,8 +3097,7 @@
         <v>0.64</v>
       </c>
       <c r="M48">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N48">
         <v>-0.113</v>
@@ -3065,19 +3109,22 @@
         <f t="array" aca="1" ref="P48" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.114</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>1.2E-2</v>
@@ -3085,8 +3132,8 @@
       <c r="F49">
         <v>0.02</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" aca="1" ref="G49" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
+      <c r="G49">
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="H49">
@@ -3096,8 +3143,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K49">
         <v>0.64</v>
@@ -3106,8 +3152,7 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N49">
         <v>-0.17399999999999999</v>
@@ -3119,19 +3164,22 @@
         <f t="array" aca="1" ref="P49" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0.02</v>
@@ -3139,9 +3187,8 @@
       <c r="F50">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" aca="1" ref="G50" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G50">
+        <v>2.7E-2</v>
       </c>
       <c r="H50">
         <v>0.2</v>
@@ -3150,8 +3197,7 @@
         <v>0.25</v>
       </c>
       <c r="J50">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K50">
         <v>0.1</v>
@@ -3160,8 +3206,7 @@
         <v>0.3</v>
       </c>
       <c r="M50">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N50">
         <v>-0.02</v>
@@ -3173,19 +3218,22 @@
         <f t="array" aca="1" ref="P50" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0.02</v>
@@ -3193,9 +3241,8 @@
       <c r="F51">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" aca="1" ref="G51" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G51">
+        <v>2.7E-2</v>
       </c>
       <c r="H51">
         <v>0.2</v>
@@ -3204,8 +3251,7 @@
         <v>0.25</v>
       </c>
       <c r="J51">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K51">
         <v>0.3</v>
@@ -3214,7 +3260,7 @@
         <v>0.5</v>
       </c>
       <c r="M51">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N51">
@@ -3227,19 +3273,22 @@
         <f t="array" aca="1" ref="P51" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0.02</v>
@@ -3247,9 +3296,8 @@
       <c r="F52">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" aca="1" ref="G52" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G52">
+        <v>2.7E-2</v>
       </c>
       <c r="H52">
         <v>0.2</v>
@@ -3258,8 +3306,7 @@
         <v>0.25</v>
       </c>
       <c r="J52">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K52">
         <v>0.5</v>
@@ -3268,7 +3315,7 @@
         <v>0.64</v>
       </c>
       <c r="M52">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N52">
@@ -3281,19 +3328,22 @@
         <f t="array" aca="1" ref="P52" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.75">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0.02</v>
@@ -3301,9 +3351,8 @@
       <c r="F53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" aca="1" ref="G53" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G53">
+        <v>2.7E-2</v>
       </c>
       <c r="H53">
         <v>0.2</v>
@@ -3312,8 +3361,7 @@
         <v>0.25</v>
       </c>
       <c r="J53">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K53">
         <v>0.64</v>
@@ -3322,8 +3370,7 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N53">
         <v>1.0999999999999999E-2</v>
@@ -3335,19 +3382,22 @@
         <f t="array" aca="1" ref="P53" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0.02</v>
@@ -3355,9 +3405,8 @@
       <c r="F54">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" aca="1" ref="G54" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G54">
+        <v>2.7E-2</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -3366,8 +3415,7 @@
         <v>0.32</v>
       </c>
       <c r="J54">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K54">
         <v>0.1</v>
@@ -3376,8 +3424,7 @@
         <v>0.3</v>
       </c>
       <c r="M54">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N54">
         <v>3.2000000000000001E-2</v>
@@ -3389,19 +3436,22 @@
         <f t="array" aca="1" ref="P54" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0.02</v>
@@ -3409,9 +3459,8 @@
       <c r="F55">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" aca="1" ref="G55" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G55">
+        <v>2.7E-2</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -3420,8 +3469,7 @@
         <v>0.32</v>
       </c>
       <c r="J55">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K55">
         <v>0.3</v>
@@ -3430,7 +3478,7 @@
         <v>0.5</v>
       </c>
       <c r="M55">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N55">
@@ -3443,19 +3491,22 @@
         <f t="array" aca="1" ref="P55" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0.02</v>
@@ -3463,9 +3514,8 @@
       <c r="F56">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" aca="1" ref="G56" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G56">
+        <v>2.7E-2</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -3474,8 +3524,7 @@
         <v>0.32</v>
       </c>
       <c r="J56">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K56">
         <v>0.5</v>
@@ -3484,7 +3533,7 @@
         <v>0.64</v>
       </c>
       <c r="M56">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N56">
@@ -3497,19 +3546,22 @@
         <f t="array" aca="1" ref="P56" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.75">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>0.02</v>
@@ -3517,9 +3569,8 @@
       <c r="F57">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" aca="1" ref="G57" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G57">
+        <v>2.7E-2</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -3528,8 +3579,7 @@
         <v>0.32</v>
       </c>
       <c r="J57">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K57">
         <v>0.64</v>
@@ -3538,8 +3588,7 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N57">
         <v>1.9E-2</v>
@@ -3551,19 +3600,22 @@
         <f t="array" aca="1" ref="P57" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0.02</v>
@@ -3571,9 +3623,8 @@
       <c r="F58">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" aca="1" ref="G58" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G58">
+        <v>2.7E-2</v>
       </c>
       <c r="H58">
         <v>0.32</v>
@@ -3582,7 +3633,7 @@
         <v>0.4</v>
       </c>
       <c r="J58">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K58">
@@ -3592,8 +3643,7 @@
         <v>0.3</v>
       </c>
       <c r="M58">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N58">
         <v>1.4E-2</v>
@@ -3605,19 +3655,22 @@
         <f t="array" aca="1" ref="P58" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0.02</v>
@@ -3625,9 +3678,8 @@
       <c r="F59">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" aca="1" ref="G59" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G59">
+        <v>2.7E-2</v>
       </c>
       <c r="H59">
         <v>0.32</v>
@@ -3636,7 +3688,7 @@
         <v>0.4</v>
       </c>
       <c r="J59">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K59">
@@ -3646,7 +3698,7 @@
         <v>0.5</v>
       </c>
       <c r="M59">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N59">
@@ -3659,19 +3711,22 @@
         <f t="array" aca="1" ref="P59" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0.02</v>
@@ -3679,9 +3734,8 @@
       <c r="F60">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" aca="1" ref="G60" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G60">
+        <v>2.7E-2</v>
       </c>
       <c r="H60">
         <v>0.32</v>
@@ -3690,7 +3744,7 @@
         <v>0.4</v>
       </c>
       <c r="J60">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K60">
@@ -3700,7 +3754,7 @@
         <v>0.64</v>
       </c>
       <c r="M60">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N60">
@@ -3713,19 +3767,22 @@
         <f t="array" aca="1" ref="P60" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>0.02</v>
@@ -3733,9 +3790,8 @@
       <c r="F61">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G61" cm="1">
-        <f t="array" aca="1" ref="G61" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G61">
+        <v>2.7E-2</v>
       </c>
       <c r="H61">
         <v>0.32</v>
@@ -3744,7 +3800,7 @@
         <v>0.4</v>
       </c>
       <c r="J61">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="K61">
@@ -3754,8 +3810,7 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N61">
         <v>0.04</v>
@@ -3767,19 +3822,22 @@
         <f t="array" aca="1" ref="P61" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0.02</v>
@@ -3787,9 +3845,8 @@
       <c r="F62">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G62" cm="1">
-        <f t="array" aca="1" ref="G62" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G62">
+        <v>2.7E-2</v>
       </c>
       <c r="H62">
         <v>0.4</v>
@@ -3798,8 +3855,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J62">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K62">
         <v>0.1</v>
@@ -3808,8 +3864,7 @@
         <v>0.3</v>
       </c>
       <c r="M62">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N62">
         <v>7.0000000000000007E-2</v>
@@ -3821,19 +3876,22 @@
         <f t="array" aca="1" ref="P62" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.75">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0.02</v>
@@ -3841,9 +3899,8 @@
       <c r="F63">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G63" cm="1">
-        <f t="array" aca="1" ref="G63" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G63">
+        <v>2.7E-2</v>
       </c>
       <c r="H63">
         <v>0.4</v>
@@ -3852,8 +3909,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J63">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K63">
         <v>0.3</v>
@@ -3862,7 +3918,7 @@
         <v>0.5</v>
       </c>
       <c r="M63">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N63">
@@ -3875,19 +3931,22 @@
         <f t="array" aca="1" ref="P63" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0.02</v>
@@ -3895,9 +3954,8 @@
       <c r="F64">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G64" cm="1">
-        <f t="array" aca="1" ref="G64" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G64">
+        <v>2.7E-2</v>
       </c>
       <c r="H64">
         <v>0.4</v>
@@ -3906,8 +3964,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J64">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K64">
         <v>0.5</v>
@@ -3916,7 +3973,7 @@
         <v>0.64</v>
       </c>
       <c r="M64">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N64">
@@ -3929,19 +3986,22 @@
         <f t="array" aca="1" ref="P64" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.75">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0.02</v>
@@ -3949,9 +4009,8 @@
       <c r="F65">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G65" cm="1">
-        <f t="array" aca="1" ref="G65" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G65">
+        <v>2.7E-2</v>
       </c>
       <c r="H65">
         <v>0.4</v>
@@ -3960,8 +4019,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J65">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K65">
         <v>0.64</v>
@@ -3970,8 +4028,7 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N65">
         <v>-1.4E-2</v>
@@ -3983,19 +4040,22 @@
         <f t="array" aca="1" ref="P65" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>0.02</v>
@@ -4003,9 +4063,8 @@
       <c r="F66">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G66" cm="1">
-        <f t="array" aca="1" ref="G66" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G66">
+        <v>2.7E-2</v>
       </c>
       <c r="H66">
         <v>0.55000000000000004</v>
@@ -4014,8 +4073,7 @@
         <v>0.7</v>
       </c>
       <c r="J66">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K66">
         <v>0.1</v>
@@ -4024,8 +4082,7 @@
         <v>0.3</v>
       </c>
       <c r="M66">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N66">
         <v>0.09</v>
@@ -4037,19 +4094,22 @@
         <f t="array" aca="1" ref="P66" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0.02</v>
@@ -4057,9 +4117,8 @@
       <c r="F67">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G67" cm="1">
-        <f t="array" aca="1" ref="G67" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G67">
+        <v>2.7E-2</v>
       </c>
       <c r="H67">
         <v>0.55000000000000004</v>
@@ -4068,8 +4127,7 @@
         <v>0.7</v>
       </c>
       <c r="J67">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K67">
         <v>0.3</v>
@@ -4078,7 +4136,7 @@
         <v>0.5</v>
       </c>
       <c r="M67">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="N67">
@@ -4091,19 +4149,22 @@
         <f t="array" aca="1" ref="P67" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0.02</v>
@@ -4111,9 +4172,8 @@
       <c r="F68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G68" cm="1">
-        <f t="array" aca="1" ref="G68" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G68">
+        <v>2.7E-2</v>
       </c>
       <c r="H68">
         <v>0.55000000000000004</v>
@@ -4122,8 +4182,7 @@
         <v>0.7</v>
       </c>
       <c r="J68">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K68">
         <v>0.5</v>
@@ -4132,7 +4191,7 @@
         <v>0.64</v>
       </c>
       <c r="M68">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N68">
@@ -4145,19 +4204,22 @@
         <f t="array" aca="1" ref="P68" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0.02</v>
@@ -4165,9 +4227,8 @@
       <c r="F69">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G69" cm="1">
-        <f t="array" aca="1" ref="G69" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G69">
+        <v>2.7E-2</v>
       </c>
       <c r="H69">
         <v>0.55000000000000004</v>
@@ -4176,8 +4237,7 @@
         <v>0.7</v>
       </c>
       <c r="J69">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K69">
         <v>0.64</v>
@@ -4186,8 +4246,7 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N69">
         <v>-1.2999999999999999E-2</v>
@@ -4199,19 +4258,22 @@
         <f t="array" aca="1" ref="P69" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>0.02</v>
@@ -4219,9 +4281,8 @@
       <c r="F70">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G70" cm="1">
-        <f t="array" aca="1" ref="G70" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G70">
+        <v>2.7E-2</v>
       </c>
       <c r="H70">
         <v>0.7</v>
@@ -4230,8 +4291,7 @@
         <v>0.85</v>
       </c>
       <c r="J70">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K70">
         <v>0.1</v>
@@ -4240,8 +4300,7 @@
         <v>0.3</v>
       </c>
       <c r="M70">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N70">
         <v>0.16</v>
@@ -4253,19 +4312,22 @@
         <f t="array" aca="1" ref="P70" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.75">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0.02</v>
@@ -4273,9 +4335,8 @@
       <c r="F71">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G71" cm="1">
-        <f t="array" aca="1" ref="G71" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G71">
+        <v>2.7E-2</v>
       </c>
       <c r="H71">
         <v>0.7</v>
@@ -4284,8 +4345,7 @@
         <v>0.85</v>
       </c>
       <c r="J71">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K71">
         <v>0.3</v>
@@ -4294,7 +4354,7 @@
         <v>0.5</v>
       </c>
       <c r="M71">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" ref="M71:M97" si="3">(K71+L71)/2</f>
         <v>0.4</v>
       </c>
       <c r="N71">
@@ -4307,19 +4367,22 @@
         <f t="array" aca="1" ref="P71" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.75">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0.02</v>
@@ -4327,9 +4390,8 @@
       <c r="F72">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G72" cm="1">
-        <f t="array" aca="1" ref="G72" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G72">
+        <v>2.7E-2</v>
       </c>
       <c r="H72">
         <v>0.7</v>
@@ -4338,8 +4400,7 @@
         <v>0.85</v>
       </c>
       <c r="J72">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K72">
         <v>0.5</v>
@@ -4348,8 +4409,7 @@
         <v>0.64</v>
       </c>
       <c r="M72">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N72">
         <v>-3.7999999999999999E-2</v>
@@ -4361,19 +4421,22 @@
         <f t="array" aca="1" ref="P72" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.112</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0.02</v>
@@ -4381,9 +4444,8 @@
       <c r="F73">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G73" cm="1">
-        <f t="array" aca="1" ref="G73" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>2.8999999999999998E-2</v>
+      <c r="G73">
+        <v>2.7E-2</v>
       </c>
       <c r="H73">
         <v>0.7</v>
@@ -4392,8 +4454,7 @@
         <v>0.85</v>
       </c>
       <c r="J73">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K73">
         <v>0.64</v>
@@ -4402,8 +4463,7 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N73">
         <v>-7.6999999999999999E-2</v>
@@ -4415,19 +4475,22 @@
         <f t="array" aca="1" ref="P73" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15.75">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>3.7999999999999999E-2</v>
@@ -4435,9 +4498,8 @@
       <c r="F74">
         <v>0.13</v>
       </c>
-      <c r="G74" cm="1">
-        <f t="array" aca="1" ref="G74" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G74">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H74">
         <v>0.2</v>
@@ -4446,8 +4508,7 @@
         <v>0.25</v>
       </c>
       <c r="J74">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K74">
         <v>0.1</v>
@@ -4456,8 +4517,7 @@
         <v>0.3</v>
       </c>
       <c r="M74">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N74">
         <v>-0.08</v>
@@ -4469,19 +4529,22 @@
         <f t="array" aca="1" ref="P74" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15.75">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>3.7999999999999999E-2</v>
@@ -4489,9 +4552,8 @@
       <c r="F75">
         <v>0.13</v>
       </c>
-      <c r="G75" cm="1">
-        <f t="array" aca="1" ref="G75" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G75">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H75">
         <v>0.2</v>
@@ -4500,8 +4562,7 @@
         <v>0.25</v>
       </c>
       <c r="J75">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K75">
         <v>0.3</v>
@@ -4510,7 +4571,7 @@
         <v>0.5</v>
       </c>
       <c r="M75">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N75">
@@ -4523,19 +4584,22 @@
         <f t="array" aca="1" ref="P75" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15.75">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>3.7999999999999999E-2</v>
@@ -4543,9 +4607,8 @@
       <c r="F76">
         <v>0.13</v>
       </c>
-      <c r="G76" cm="1">
-        <f t="array" aca="1" ref="G76" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G76">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H76">
         <v>0.2</v>
@@ -4554,8 +4617,7 @@
         <v>0.25</v>
       </c>
       <c r="J76">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K76">
         <v>0.5</v>
@@ -4564,8 +4626,7 @@
         <v>0.64</v>
       </c>
       <c r="M76">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N76">
         <v>1.4E-2</v>
@@ -4577,19 +4638,22 @@
         <f t="array" aca="1" ref="P76" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15.75">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>3.7999999999999999E-2</v>
@@ -4597,9 +4661,8 @@
       <c r="F77">
         <v>0.13</v>
       </c>
-      <c r="G77" cm="1">
-        <f t="array" aca="1" ref="G77" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G77">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H77">
         <v>0.2</v>
@@ -4608,8 +4671,7 @@
         <v>0.25</v>
       </c>
       <c r="J77">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K77">
         <v>0.64</v>
@@ -4618,8 +4680,7 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N77">
         <v>7.3999999999999996E-2</v>
@@ -4631,19 +4692,22 @@
         <f t="array" aca="1" ref="P77" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15.75">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>3.7999999999999999E-2</v>
@@ -4651,9 +4715,8 @@
       <c r="F78">
         <v>0.13</v>
       </c>
-      <c r="G78" cm="1">
-        <f t="array" aca="1" ref="G78" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G78">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -4662,8 +4725,7 @@
         <v>0.32</v>
       </c>
       <c r="J78">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K78">
         <v>0.1</v>
@@ -4672,8 +4734,7 @@
         <v>0.3</v>
       </c>
       <c r="M78">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N78">
         <v>-4.0000000000000001E-3</v>
@@ -4685,19 +4746,22 @@
         <f t="array" aca="1" ref="P78" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15.75">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>3.7999999999999999E-2</v>
@@ -4705,9 +4769,8 @@
       <c r="F79">
         <v>0.13</v>
       </c>
-      <c r="G79" cm="1">
-        <f t="array" aca="1" ref="G79" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G79">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -4716,8 +4779,7 @@
         <v>0.32</v>
       </c>
       <c r="J79">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K79">
         <v>0.3</v>
@@ -4726,7 +4788,7 @@
         <v>0.5</v>
       </c>
       <c r="M79">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N79">
@@ -4739,19 +4801,22 @@
         <f t="array" aca="1" ref="P79" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15.75">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>3.7999999999999999E-2</v>
@@ -4759,9 +4824,8 @@
       <c r="F80">
         <v>0.13</v>
       </c>
-      <c r="G80" cm="1">
-        <f t="array" aca="1" ref="G80" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G80">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -4770,8 +4834,7 @@
         <v>0.32</v>
       </c>
       <c r="J80">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K80">
         <v>0.5</v>
@@ -4780,7 +4843,7 @@
         <v>0.64</v>
       </c>
       <c r="M80">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N80">
@@ -4793,19 +4856,22 @@
         <f t="array" aca="1" ref="P80" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15.75">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>3.7999999999999999E-2</v>
@@ -4813,9 +4879,8 @@
       <c r="F81">
         <v>0.13</v>
       </c>
-      <c r="G81" cm="1">
-        <f t="array" aca="1" ref="G81" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G81">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -4824,8 +4889,7 @@
         <v>0.32</v>
       </c>
       <c r="J81">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K81">
         <v>0.64</v>
@@ -4834,8 +4898,7 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N81">
         <v>2.1000000000000001E-2</v>
@@ -4847,19 +4910,22 @@
         <f t="array" aca="1" ref="P81" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15.75">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>3.7999999999999999E-2</v>
@@ -4867,9 +4933,8 @@
       <c r="F82">
         <v>0.13</v>
       </c>
-      <c r="G82" cm="1">
-        <f t="array" aca="1" ref="G82" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G82">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H82">
         <v>0.32</v>
@@ -4878,7 +4943,7 @@
         <v>0.4</v>
       </c>
       <c r="J82">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" ref="J82:J97" si="4">(H82+I82)/2</f>
         <v>0.36</v>
       </c>
       <c r="K82">
@@ -4888,8 +4953,7 @@
         <v>0.3</v>
       </c>
       <c r="M82">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N82">
         <v>-7.0000000000000001E-3</v>
@@ -4901,19 +4965,22 @@
         <f t="array" aca="1" ref="P82" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15.75">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>3.7999999999999999E-2</v>
@@ -4921,9 +4988,8 @@
       <c r="F83">
         <v>0.13</v>
       </c>
-      <c r="G83" cm="1">
-        <f t="array" aca="1" ref="G83" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G83">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H83">
         <v>0.32</v>
@@ -4932,7 +4998,7 @@
         <v>0.4</v>
       </c>
       <c r="J83">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="K83">
@@ -4942,7 +5008,7 @@
         <v>0.5</v>
       </c>
       <c r="M83">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N83">
@@ -4955,19 +5021,22 @@
         <f t="array" aca="1" ref="P83" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15.75">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>3.7999999999999999E-2</v>
@@ -4975,9 +5044,8 @@
       <c r="F84">
         <v>0.13</v>
       </c>
-      <c r="G84" cm="1">
-        <f t="array" aca="1" ref="G84" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G84">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H84">
         <v>0.32</v>
@@ -4986,7 +5054,7 @@
         <v>0.4</v>
       </c>
       <c r="J84">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="K84">
@@ -4996,7 +5064,7 @@
         <v>0.64</v>
       </c>
       <c r="M84">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N84">
@@ -5009,19 +5077,22 @@
         <f t="array" aca="1" ref="P84" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15.75">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>3.7999999999999999E-2</v>
@@ -5029,9 +5100,8 @@
       <c r="F85">
         <v>0.13</v>
       </c>
-      <c r="G85" cm="1">
-        <f t="array" aca="1" ref="G85" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G85">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H85">
         <v>0.32</v>
@@ -5040,7 +5110,7 @@
         <v>0.4</v>
       </c>
       <c r="J85">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="K85">
@@ -5050,8 +5120,7 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N85">
         <v>6.0999999999999999E-2</v>
@@ -5063,19 +5132,22 @@
         <f t="array" aca="1" ref="P85" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15.75">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>3.7999999999999999E-2</v>
@@ -5083,9 +5155,8 @@
       <c r="F86">
         <v>0.13</v>
       </c>
-      <c r="G86" cm="1">
-        <f t="array" aca="1" ref="G86" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G86">
+        <v>6.3E-2</v>
       </c>
       <c r="H86">
         <v>0.4</v>
@@ -5094,8 +5165,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J86">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K86">
         <v>0.1</v>
@@ -5104,8 +5174,7 @@
         <v>0.3</v>
       </c>
       <c r="M86">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N86">
         <v>5.1999999999999998E-2</v>
@@ -5117,19 +5186,22 @@
         <f t="array" aca="1" ref="P86" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15.75">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>3.7999999999999999E-2</v>
@@ -5137,9 +5209,8 @@
       <c r="F87">
         <v>0.13</v>
       </c>
-      <c r="G87" cm="1">
-        <f t="array" aca="1" ref="G87" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G87">
+        <v>6.3E-2</v>
       </c>
       <c r="H87">
         <v>0.4</v>
@@ -5148,8 +5219,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J87">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K87">
         <v>0.3</v>
@@ -5158,7 +5228,7 @@
         <v>0.5</v>
       </c>
       <c r="M87">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N87">
@@ -5171,19 +5241,22 @@
         <f t="array" aca="1" ref="P87" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15.75">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>3.7999999999999999E-2</v>
@@ -5191,9 +5264,8 @@
       <c r="F88">
         <v>0.13</v>
       </c>
-      <c r="G88" cm="1">
-        <f t="array" aca="1" ref="G88" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G88">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H88">
         <v>0.4</v>
@@ -5202,8 +5274,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J88">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K88">
         <v>0.5</v>
@@ -5212,7 +5283,7 @@
         <v>0.64</v>
       </c>
       <c r="M88">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N88">
@@ -5225,19 +5296,22 @@
         <f t="array" aca="1" ref="P88" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>3.7999999999999999E-2</v>
@@ -5245,9 +5319,8 @@
       <c r="F89">
         <v>0.13</v>
       </c>
-      <c r="G89" cm="1">
-        <f t="array" aca="1" ref="G89" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G89">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H89">
         <v>0.4</v>
@@ -5256,8 +5329,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J89">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K89">
         <v>0.64</v>
@@ -5266,8 +5338,7 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N89">
         <v>1.7999999999999999E-2</v>
@@ -5279,19 +5350,22 @@
         <f t="array" aca="1" ref="P89" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>3.7999999999999999E-2</v>
@@ -5299,9 +5373,8 @@
       <c r="F90">
         <v>0.13</v>
       </c>
-      <c r="G90" cm="1">
-        <f t="array" aca="1" ref="G90" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G90">
+        <v>6.3E-2</v>
       </c>
       <c r="H90">
         <v>0.55000000000000004</v>
@@ -5310,8 +5383,7 @@
         <v>0.7</v>
       </c>
       <c r="J90">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K90">
         <v>0.1</v>
@@ -5320,8 +5392,7 @@
         <v>0.3</v>
       </c>
       <c r="M90">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N90">
         <v>0.10100000000000001</v>
@@ -5333,19 +5404,22 @@
         <f t="array" aca="1" ref="P90" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="15.75">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>3.7999999999999999E-2</v>
@@ -5353,9 +5427,8 @@
       <c r="F91">
         <v>0.13</v>
       </c>
-      <c r="G91" cm="1">
-        <f t="array" aca="1" ref="G91" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G91">
+        <v>6.3E-2</v>
       </c>
       <c r="H91">
         <v>0.55000000000000004</v>
@@ -5364,8 +5437,7 @@
         <v>0.7</v>
       </c>
       <c r="J91">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K91">
         <v>0.3</v>
@@ -5374,7 +5446,7 @@
         <v>0.5</v>
       </c>
       <c r="M91">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N91">
@@ -5387,19 +5459,22 @@
         <f t="array" aca="1" ref="P91" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>3.7999999999999999E-2</v>
@@ -5407,9 +5482,8 @@
       <c r="F92">
         <v>0.13</v>
       </c>
-      <c r="G92" cm="1">
-        <f t="array" aca="1" ref="G92" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G92">
+        <v>6.3E-2</v>
       </c>
       <c r="H92">
         <v>0.55000000000000004</v>
@@ -5418,8 +5492,7 @@
         <v>0.7</v>
       </c>
       <c r="J92">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K92">
         <v>0.5</v>
@@ -5428,7 +5501,7 @@
         <v>0.64</v>
       </c>
       <c r="M92">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N92">
@@ -5441,19 +5514,22 @@
         <f t="array" aca="1" ref="P92" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15.75">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>3.7999999999999999E-2</v>
@@ -5461,9 +5537,8 @@
       <c r="F93">
         <v>0.13</v>
       </c>
-      <c r="G93" cm="1">
-        <f t="array" aca="1" ref="G93" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G93">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H93">
         <v>0.55000000000000004</v>
@@ -5472,8 +5547,7 @@
         <v>0.7</v>
       </c>
       <c r="J93">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K93">
         <v>0.64</v>
@@ -5482,8 +5556,7 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N93">
         <v>-8.6999999999999994E-2</v>
@@ -5495,19 +5568,22 @@
         <f t="array" aca="1" ref="P93" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="15.75">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>3.7999999999999999E-2</v>
@@ -5515,9 +5591,8 @@
       <c r="F94">
         <v>0.13</v>
       </c>
-      <c r="G94" cm="1">
-        <f t="array" aca="1" ref="G94" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G94">
+        <v>0.06</v>
       </c>
       <c r="H94">
         <v>0.7</v>
@@ -5526,8 +5601,7 @@
         <v>0.85</v>
       </c>
       <c r="J94">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K94">
         <v>0.1</v>
@@ -5536,8 +5610,7 @@
         <v>0.3</v>
       </c>
       <c r="M94">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N94">
         <v>-0.06</v>
@@ -5549,19 +5622,22 @@
         <f t="array" aca="1" ref="P94" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.128</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15.75">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>3.7999999999999999E-2</v>
@@ -5569,9 +5645,8 @@
       <c r="F95">
         <v>0.13</v>
       </c>
-      <c r="G95" cm="1">
-        <f t="array" aca="1" ref="G95" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G95">
+        <v>6.2E-2</v>
       </c>
       <c r="H95">
         <v>0.7</v>
@@ -5580,8 +5655,7 @@
         <v>0.85</v>
       </c>
       <c r="J95">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K95">
         <v>0.3</v>
@@ -5590,7 +5664,7 @@
         <v>0.5</v>
       </c>
       <c r="M95">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="N95">
@@ -5603,19 +5677,22 @@
         <f t="array" aca="1" ref="P95" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15.75">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>3.7999999999999999E-2</v>
@@ -5623,9 +5700,8 @@
       <c r="F96">
         <v>0.13</v>
       </c>
-      <c r="G96" cm="1">
-        <f t="array" aca="1" ref="G96" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G96">
+        <v>6.3E-2</v>
       </c>
       <c r="H96">
         <v>0.7</v>
@@ -5634,8 +5710,7 @@
         <v>0.85</v>
       </c>
       <c r="J96">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K96">
         <v>0.5</v>
@@ -5644,7 +5719,7 @@
         <v>0.64</v>
       </c>
       <c r="M96">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N96">
@@ -5657,19 +5732,22 @@
         <f t="array" aca="1" ref="P96" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.126</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="15.75">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>3.7999999999999999E-2</v>
@@ -5677,9 +5755,8 @@
       <c r="F97">
         <v>0.13</v>
       </c>
-      <c r="G97" cm="1">
-        <f t="array" aca="1" ref="G97" ca="1">(INDIRECT("E" &amp; ROW()) + INDIRECT("F" &amp; ROW())) / 2</f>
-        <v>8.4000000000000005E-2</v>
+      <c r="G97">
+        <v>6.3E-2</v>
       </c>
       <c r="H97">
         <v>0.7</v>
@@ -5688,8 +5765,7 @@
         <v>0.85</v>
       </c>
       <c r="J97">
-        <f ca="1">AVERAGE(INDIRECT("H" &amp; ROW()):INDIRECT("I" &amp; ROW()))</f>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K97">
         <v>0.64</v>
@@ -5698,8 +5774,7 @@
         <v>1</v>
       </c>
       <c r="M97">
-        <f ca="1">AVERAGE(INDIRECT("K" &amp; ROW()):INDIRECT("L" &amp; ROW()))</f>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N97">
         <v>-6.8000000000000005E-2</v>
@@ -5710,6 +5785,9 @@
       <c r="P97" cm="1">
         <f t="array" aca="1" ref="P97" ca="1">2*INDIRECT("O" &amp; ROW())</f>
         <v>0.1</v>
+      </c>
+      <c r="Q97">
+        <v>6.66</v>
       </c>
     </row>
   </sheetData>

--- a/database/sidis/expdata/5040.xlsx
+++ b/database/sidis/expdata/5040.xlsx
@@ -1,57 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{235AB7E6-B331-41FE-9501-37C5ECBDFB68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4B94B-A8BE-3143-AE9A-60751F813313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,13 +441,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -576,15 +546,15 @@
       <c r="O2">
         <v>0.02</v>
       </c>
-      <c r="P2" cm="1">
-        <f t="array" aca="1" ref="P2" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P2">
+        <f>O2</f>
+        <v>0.02</v>
       </c>
       <c r="Q2">
         <v>1.41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -630,15 +600,15 @@
       <c r="O3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P3" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.5999999999999997E-2</v>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">O3</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q3">
         <v>1.41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -684,15 +654,15 @@
       <c r="O4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P4" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.1999999999999998E-2</v>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -738,15 +708,15 @@
       <c r="O5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P5" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q5">
         <v>1.42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -792,15 +762,15 @@
       <c r="O6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P6" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q6">
         <v>1.41</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -838,7 +808,7 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M70" si="0">(K7+L7)/2</f>
+        <f t="shared" ref="M7:M68" si="1">(K7+L7)/2</f>
         <v>0.4</v>
       </c>
       <c r="N7">
@@ -847,15 +817,15 @@
       <c r="O7">
         <v>0.02</v>
       </c>
-      <c r="P7" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="Q7">
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -893,7 +863,7 @@
         <v>0.64</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N8">
@@ -902,15 +872,15 @@
       <c r="O8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P8" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.6000000000000001E-2</v>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q8">
         <v>1.41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -956,15 +926,15 @@
       <c r="O9">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P9" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.1999999999999998E-2</v>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q9">
         <v>1.41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -993,7 +963,7 @@
         <v>0.4</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J73" si="1">(H10+I10)/2</f>
+        <f t="shared" ref="J10:J61" si="2">(H10+I10)/2</f>
         <v>0.36</v>
       </c>
       <c r="K10">
@@ -1011,15 +981,15 @@
       <c r="O10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P10" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q10">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1018,7 @@
         <v>0.4</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K11">
@@ -1066,15 +1036,15 @@
       <c r="O11">
         <v>2.4E-2</v>
       </c>
-      <c r="P11" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.8000000000000001E-2</v>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
       </c>
       <c r="Q11">
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1073,7 @@
         <v>0.4</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K12">
@@ -1113,7 +1083,7 @@
         <v>0.64</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N12">
@@ -1122,15 +1092,15 @@
       <c r="O12">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P12" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.6000000000000003E-2</v>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q12">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1129,7 @@
         <v>0.4</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K13">
@@ -1177,15 +1147,15 @@
       <c r="O13">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P13" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q13">
         <v>1.41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1231,15 +1201,15 @@
       <c r="O14">
         <v>3.1E-2</v>
       </c>
-      <c r="P14" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.2E-2</v>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
       </c>
       <c r="Q14">
         <v>1.39</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1247,7 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N15">
@@ -1286,15 +1256,15 @@
       <c r="O15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P15" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q15">
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1332,7 +1302,7 @@
         <v>0.64</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N16">
@@ -1341,15 +1311,15 @@
       <c r="O16">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P16" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.8000000000000005E-2</v>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q16">
         <v>1.41</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1395,15 +1365,15 @@
       <c r="O17">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P17" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q17">
         <v>1.41</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1449,15 +1419,15 @@
       <c r="O18">
         <v>4.7E-2</v>
       </c>
-      <c r="P18" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>9.4E-2</v>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
       </c>
       <c r="Q18">
         <v>1.36</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1503,15 +1473,15 @@
       <c r="O19">
         <v>3.9E-2</v>
       </c>
-      <c r="P19" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>7.8E-2</v>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
       </c>
       <c r="Q19">
         <v>1.38</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1519,7 @@
         <v>0.64</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N20">
@@ -1558,15 +1528,15 @@
       <c r="O20">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P20" cm="1">
-        <f t="array" aca="1" ref="P20" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.104</v>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q20">
         <v>1.39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1612,15 +1582,15 @@
       <c r="O21">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P21" cm="1">
-        <f t="array" aca="1" ref="P21" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>8.7999999999999995E-2</v>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q21">
         <v>1.41</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1666,15 +1636,15 @@
       <c r="O22">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="P22" cm="1">
-        <f t="array" aca="1" ref="P22" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.13400000000000001</v>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q22">
         <v>1.35</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1720,15 +1690,15 @@
       <c r="O23">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="P23" cm="1">
-        <f t="array" aca="1" ref="P23" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.122</v>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q23">
         <v>1.37</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1774,15 +1744,15 @@
       <c r="O24">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="P24" cm="1">
-        <f t="array" aca="1" ref="P24" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.16400000000000001</v>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q24">
         <v>1.38</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1828,15 +1798,15 @@
       <c r="O25">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P25" cm="1">
-        <f t="array" aca="1" ref="P25" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.13200000000000001</v>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q25">
         <v>1.39</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1826,7 @@
         <v>0.02</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G49" si="2">(E26+F26)/2</f>
+        <f t="shared" ref="G26:G49" si="3">(E26+F26)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H26">
@@ -1883,15 +1853,15 @@
       <c r="O26">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P26" cm="1">
-        <f t="array" aca="1" ref="P26" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.03</v>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q26">
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1881,7 @@
         <v>0.02</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H27">
@@ -1930,7 +1900,7 @@
         <v>0.5</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N27">
@@ -1939,15 +1909,15 @@
       <c r="O27">
         <v>1.4E-2</v>
       </c>
-      <c r="P27" cm="1">
-        <f t="array" aca="1" ref="P27" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>2.8000000000000001E-2</v>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="Q27">
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +1937,7 @@
         <v>0.02</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H28">
@@ -1994,15 +1964,15 @@
       <c r="O28">
         <v>0.02</v>
       </c>
-      <c r="P28" cm="1">
-        <f t="array" aca="1" ref="P28" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="Q28">
         <v>1.81</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +1992,7 @@
         <v>0.02</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H29">
@@ -2049,15 +2019,15 @@
       <c r="O29">
         <v>0.02</v>
       </c>
-      <c r="P29" cm="1">
-        <f t="array" aca="1" ref="P29" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="Q29">
         <v>1.87</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2047,7 @@
         <v>0.02</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H30">
@@ -2104,15 +2074,15 @@
       <c r="O30">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P30" cm="1">
-        <f t="array" aca="1" ref="P30" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.4000000000000002E-2</v>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q30">
         <v>1.8</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2102,7 @@
         <v>0.02</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H31">
@@ -2151,7 +2121,7 @@
         <v>0.5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N31">
@@ -2160,15 +2130,15 @@
       <c r="O31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P31" cm="1">
-        <f t="array" aca="1" ref="P31" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.03</v>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q31">
         <v>1.79</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +2158,7 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H32">
@@ -2207,7 +2177,7 @@
         <v>0.64</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N32">
@@ -2216,15 +2186,15 @@
       <c r="O32">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P32" cm="1">
-        <f t="array" aca="1" ref="P32" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.2000000000000003E-2</v>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q32">
         <v>1.79</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2244,7 +2214,7 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H33">
@@ -2271,15 +2241,15 @@
       <c r="O33">
         <v>0.02</v>
       </c>
-      <c r="P33" cm="1">
-        <f t="array" aca="1" ref="P33" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="Q33">
         <v>1.84</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2269,7 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H34">
@@ -2309,7 +2279,7 @@
         <v>0.4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K34">
@@ -2327,15 +2297,15 @@
       <c r="O34">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P34" cm="1">
-        <f t="array" aca="1" ref="P34" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.2000000000000003E-2</v>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q34">
         <v>1.78</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +2325,7 @@
         <v>0.02</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H35">
@@ -2365,7 +2335,7 @@
         <v>0.4</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K35">
@@ -2375,7 +2345,7 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N35">
@@ -2384,15 +2354,15 @@
       <c r="O35">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P35" cm="1">
-        <f t="array" aca="1" ref="P35" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.5999999999999997E-2</v>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q35">
         <v>1.77</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2382,7 @@
         <v>0.02</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H36">
@@ -2422,7 +2392,7 @@
         <v>0.4</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K36">
@@ -2432,7 +2402,7 @@
         <v>0.64</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N36">
@@ -2441,15 +2411,15 @@
       <c r="O36">
         <v>2.4E-2</v>
       </c>
-      <c r="P36" cm="1">
-        <f t="array" aca="1" ref="P36" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.8000000000000001E-2</v>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
       </c>
       <c r="Q36">
         <v>1.78</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2439,7 @@
         <v>0.02</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H37">
@@ -2479,7 +2449,7 @@
         <v>0.4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K37">
@@ -2497,15 +2467,15 @@
       <c r="O37">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P37" cm="1">
-        <f t="array" aca="1" ref="P37" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q37">
         <v>1.81</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2525,7 +2495,7 @@
         <v>0.02</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H38">
@@ -2552,15 +2522,15 @@
       <c r="O38">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P38" cm="1">
-        <f t="array" aca="1" ref="P38" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q38">
         <v>1.72</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +2550,7 @@
         <v>0.02</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H39">
@@ -2599,7 +2569,7 @@
         <v>0.5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N39">
@@ -2608,15 +2578,15 @@
       <c r="O39">
         <v>1.9E-2</v>
       </c>
-      <c r="P39" cm="1">
-        <f t="array" aca="1" ref="P39" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.7999999999999999E-2</v>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
       </c>
       <c r="Q39">
         <v>1.75</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2636,7 +2606,7 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H40">
@@ -2655,7 +2625,7 @@
         <v>0.64</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N40">
@@ -2664,15 +2634,15 @@
       <c r="O40">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P40" cm="1">
-        <f t="array" aca="1" ref="P40" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.1999999999999998E-2</v>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q40">
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2692,7 +2662,7 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H41">
@@ -2719,15 +2689,15 @@
       <c r="O41">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P41" cm="1">
-        <f t="array" aca="1" ref="P41" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q41">
         <v>1.8</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2717,7 @@
         <v>0.02</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H42">
@@ -2774,15 +2744,15 @@
       <c r="O42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P42" cm="1">
-        <f t="array" aca="1" ref="P42" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>7.0000000000000007E-2</v>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q42">
         <v>1.71</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +2772,7 @@
         <v>0.02</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H43">
@@ -2829,15 +2799,15 @@
       <c r="O43">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P43" cm="1">
-        <f t="array" aca="1" ref="P43" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q43">
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2857,7 +2827,7 @@
         <v>0.02</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H44">
@@ -2876,7 +2846,7 @@
         <v>0.64</v>
       </c>
       <c r="M44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N44">
@@ -2885,15 +2855,15 @@
       <c r="O44">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P44" cm="1">
-        <f t="array" aca="1" ref="P44" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>7.3999999999999996E-2</v>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q44">
         <v>1.74</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2913,7 +2883,7 @@
         <v>0.02</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H45">
@@ -2940,15 +2910,15 @@
       <c r="O45">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P45" cm="1">
-        <f t="array" aca="1" ref="P45" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.4000000000000001E-2</v>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q45">
         <v>1.79</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2968,7 +2938,7 @@
         <v>0.02</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H46">
@@ -2995,15 +2965,15 @@
       <c r="O46">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P46" cm="1">
-        <f t="array" aca="1" ref="P46" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>9.6000000000000002E-2</v>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q46">
         <v>1.65</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +2993,7 @@
         <v>0.02</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H47">
@@ -3050,15 +3020,15 @@
       <c r="O47">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P47" cm="1">
-        <f t="array" aca="1" ref="P47" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>8.2000000000000003E-2</v>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q47">
         <v>1.68</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3048,7 @@
         <v>0.02</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H48">
@@ -3105,15 +3075,15 @@
       <c r="O48">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P48" cm="1">
-        <f t="array" aca="1" ref="P48" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.114</v>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q48">
         <v>1.73</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3133,7 +3103,7 @@
         <v>0.02</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H49">
@@ -3160,15 +3130,15 @@
       <c r="O49">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P49" cm="1">
-        <f t="array" aca="1" ref="P49" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>9.8000000000000004E-2</v>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q49">
         <v>1.77</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3214,15 +3184,15 @@
       <c r="O50">
         <v>1.6E-2</v>
       </c>
-      <c r="P50" cm="1">
-        <f t="array" aca="1" ref="P50" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.2000000000000001E-2</v>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
       </c>
       <c r="Q50">
         <v>2.83</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3230,7 @@
         <v>0.5</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N51">
@@ -3269,15 +3239,15 @@
       <c r="O51">
         <v>1.4E-2</v>
       </c>
-      <c r="P51" cm="1">
-        <f t="array" aca="1" ref="P51" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>2.8000000000000001E-2</v>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="Q51">
         <v>2.84</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3285,7 @@
         <v>0.64</v>
       </c>
       <c r="M52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N52">
@@ -3324,15 +3294,15 @@
       <c r="O52">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P52" cm="1">
-        <f t="array" aca="1" ref="P52" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.2000000000000003E-2</v>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q52">
         <v>2.9</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3378,15 +3348,15 @@
       <c r="O53">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P53" cm="1">
-        <f t="array" aca="1" ref="P53" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q53">
         <v>3.07</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3432,15 +3402,15 @@
       <c r="O54">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P54" cm="1">
-        <f t="array" aca="1" ref="P54" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.4000000000000002E-2</v>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q54">
         <v>2.81</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.75">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3478,7 +3448,7 @@
         <v>0.5</v>
       </c>
       <c r="M55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N55">
@@ -3487,15 +3457,15 @@
       <c r="O55">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P55" cm="1">
-        <f t="array" aca="1" ref="P55" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.03</v>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3533,7 +3503,7 @@
         <v>0.64</v>
       </c>
       <c r="M56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N56">
@@ -3542,15 +3512,15 @@
       <c r="O56">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P56" cm="1">
-        <f t="array" aca="1" ref="P56" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q56">
         <v>2.84</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.75">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3596,15 +3566,15 @@
       <c r="O57">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P57" cm="1">
-        <f t="array" aca="1" ref="P57" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.2000000000000003E-2</v>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q57">
         <v>2.96</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3633,7 +3603,7 @@
         <v>0.4</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K58">
@@ -3651,15 +3621,15 @@
       <c r="O58">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P58" cm="1">
-        <f t="array" aca="1" ref="P58" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q58">
         <v>2.77</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3688,7 +3658,7 @@
         <v>0.4</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K59">
@@ -3698,7 +3668,7 @@
         <v>0.5</v>
       </c>
       <c r="M59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N59">
@@ -3707,15 +3677,15 @@
       <c r="O59">
         <v>1.9E-2</v>
       </c>
-      <c r="P59" cm="1">
-        <f t="array" aca="1" ref="P59" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.7999999999999999E-2</v>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
       </c>
       <c r="Q59">
         <v>2.79</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.75">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3744,7 +3714,7 @@
         <v>0.4</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K60">
@@ -3754,7 +3724,7 @@
         <v>0.64</v>
       </c>
       <c r="M60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N60">
@@ -3763,15 +3733,15 @@
       <c r="O60">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P60" cm="1">
-        <f t="array" aca="1" ref="P60" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.1999999999999998E-2</v>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.75">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3800,7 +3770,7 @@
         <v>0.4</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K61">
@@ -3818,15 +3788,15 @@
       <c r="O61">
         <v>2.3E-2</v>
       </c>
-      <c r="P61" cm="1">
-        <f t="array" aca="1" ref="P61" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.5999999999999999E-2</v>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
       </c>
       <c r="Q61">
         <v>2.89</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.75">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3872,15 +3842,15 @@
       <c r="O62">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P62" cm="1">
-        <f t="array" aca="1" ref="P62" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q62">
         <v>2.71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3888,7 @@
         <v>0.5</v>
       </c>
       <c r="M63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N63">
@@ -3927,15 +3897,15 @@
       <c r="O63">
         <v>1.9E-2</v>
       </c>
-      <c r="P63" cm="1">
-        <f t="array" aca="1" ref="P63" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.7999999999999999E-2</v>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
       </c>
       <c r="Q63">
         <v>2.74</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.75">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3973,7 +3943,7 @@
         <v>0.64</v>
       </c>
       <c r="M64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N64">
@@ -3982,15 +3952,15 @@
       <c r="O64">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P64" cm="1">
-        <f t="array" aca="1" ref="P64" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.75">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4036,15 +4006,15 @@
       <c r="O65">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P65" cm="1">
-        <f t="array" aca="1" ref="P65" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.3999999999999997E-2</v>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q65">
         <v>2.85</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.75">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4090,15 +4060,15 @@
       <c r="O66">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P66" cm="1">
-        <f t="array" aca="1" ref="P66" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>7.3999999999999996E-2</v>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q66">
         <v>2.65</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.75">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4136,7 +4106,7 @@
         <v>0.5</v>
       </c>
       <c r="M67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N67">
@@ -4145,15 +4115,15 @@
       <c r="O67">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P67" cm="1">
-        <f t="array" aca="1" ref="P67" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P67">
+        <f t="shared" ref="P67:P97" si="4">O67</f>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q67">
         <v>2.68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15.75">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4191,7 +4161,7 @@
         <v>0.64</v>
       </c>
       <c r="M68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N68">
@@ -4200,15 +4170,15 @@
       <c r="O68">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P68" cm="1">
-        <f t="array" aca="1" ref="P68" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>7.3999999999999996E-2</v>
+      <c r="P68">
+        <f t="shared" si="4"/>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q68">
         <v>2.77</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.75">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4254,15 +4224,15 @@
       <c r="O69">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P69" cm="1">
-        <f t="array" aca="1" ref="P69" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.4000000000000001E-2</v>
+      <c r="P69">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q69">
         <v>2.82</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4308,15 +4278,15 @@
       <c r="O70">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P70" cm="1">
-        <f t="array" aca="1" ref="P70" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>9.6000000000000002E-2</v>
+      <c r="P70">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q70">
         <v>2.59</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4324,7 @@
         <v>0.5</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M97" si="3">(K71+L71)/2</f>
+        <f t="shared" ref="M71:M96" si="5">(K71+L71)/2</f>
         <v>0.4</v>
       </c>
       <c r="N71">
@@ -4363,15 +4333,15 @@
       <c r="O71">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P71" cm="1">
-        <f t="array" aca="1" ref="P71" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>8.7999999999999995E-2</v>
+      <c r="P71">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15.75">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4417,15 +4387,15 @@
       <c r="O72">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="P72" cm="1">
-        <f t="array" aca="1" ref="P72" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.112</v>
+      <c r="P72">
+        <f t="shared" si="4"/>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q72">
         <v>2.68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.75">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4471,15 +4441,15 @@
       <c r="O73">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P73" cm="1">
-        <f t="array" aca="1" ref="P73" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>9.6000000000000002E-2</v>
+      <c r="P73">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q73">
         <v>2.76</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.75">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4525,15 +4495,15 @@
       <c r="O74">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P74" cm="1">
-        <f t="array" aca="1" ref="P74" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.4000000000000002E-2</v>
+      <c r="P74">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q74">
         <v>6.81</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.75">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4541,7 @@
         <v>0.5</v>
       </c>
       <c r="M75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N75">
@@ -4580,15 +4550,15 @@
       <c r="O75">
         <v>1.6E-2</v>
       </c>
-      <c r="P75" cm="1">
-        <f t="array" aca="1" ref="P75" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.2000000000000001E-2</v>
+      <c r="P75">
+        <f t="shared" si="4"/>
+        <v>1.6E-2</v>
       </c>
       <c r="Q75">
         <v>6.87</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.75">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4634,15 +4604,15 @@
       <c r="O76">
         <v>2.3E-2</v>
       </c>
-      <c r="P76" cm="1">
-        <f t="array" aca="1" ref="P76" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.5999999999999999E-2</v>
+      <c r="P76">
+        <f t="shared" si="4"/>
+        <v>2.3E-2</v>
       </c>
       <c r="Q76">
         <v>7.08</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15.75">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4688,15 +4658,15 @@
       <c r="O77">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P77" cm="1">
-        <f t="array" aca="1" ref="P77" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P77">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q77">
         <v>7.56</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4742,15 +4712,15 @@
       <c r="O78">
         <v>1.9E-2</v>
       </c>
-      <c r="P78" cm="1">
-        <f t="array" aca="1" ref="P78" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.7999999999999999E-2</v>
+      <c r="P78">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
       </c>
       <c r="Q78">
         <v>6.75</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.75">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4788,7 +4758,7 @@
         <v>0.5</v>
       </c>
       <c r="M79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N79">
@@ -4797,15 +4767,15 @@
       <c r="O79">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P79" cm="1">
-        <f t="array" aca="1" ref="P79" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>3.4000000000000002E-2</v>
+      <c r="P79">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q79">
         <v>6.84</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.75">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4813,7 @@
         <v>0.64</v>
       </c>
       <c r="M80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N80">
@@ -4852,15 +4822,15 @@
       <c r="O80">
         <v>2.4E-2</v>
       </c>
-      <c r="P80" cm="1">
-        <f t="array" aca="1" ref="P80" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.8000000000000001E-2</v>
+      <c r="P80">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
       </c>
       <c r="Q80">
         <v>6.98</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.75">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -4906,15 +4876,15 @@
       <c r="O81">
         <v>2.3E-2</v>
       </c>
-      <c r="P81" cm="1">
-        <f t="array" aca="1" ref="P81" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.5999999999999999E-2</v>
+      <c r="P81">
+        <f t="shared" si="4"/>
+        <v>2.3E-2</v>
       </c>
       <c r="Q81">
         <v>7.33</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.75">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -4943,7 +4913,7 @@
         <v>0.4</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J97" si="4">(H82+I82)/2</f>
+        <f t="shared" ref="J82:J85" si="6">(H82+I82)/2</f>
         <v>0.36</v>
       </c>
       <c r="K82">
@@ -4961,15 +4931,15 @@
       <c r="O82">
         <v>2.4E-2</v>
       </c>
-      <c r="P82" cm="1">
-        <f t="array" aca="1" ref="P82" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.8000000000000001E-2</v>
+      <c r="P82">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
       </c>
       <c r="Q82">
         <v>6.66</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.75">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +4968,7 @@
         <v>0.4</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K83">
@@ -5008,7 +4978,7 @@
         <v>0.5</v>
       </c>
       <c r="M83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N83">
@@ -5017,15 +4987,15 @@
       <c r="O83">
         <v>0.02</v>
       </c>
-      <c r="P83" cm="1">
-        <f t="array" aca="1" ref="P83" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.04</v>
+      <c r="P83">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="Q83">
         <v>6.74</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15.75">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5054,7 +5024,7 @@
         <v>0.4</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K84">
@@ -5064,7 +5034,7 @@
         <v>0.64</v>
       </c>
       <c r="M84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N84">
@@ -5073,15 +5043,15 @@
       <c r="O84">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P84" cm="1">
-        <f t="array" aca="1" ref="P84" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.6000000000000001E-2</v>
+      <c r="P84">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q84">
         <v>6.9</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.75">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5110,7 +5080,7 @@
         <v>0.4</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K85">
@@ -5128,15 +5098,15 @@
       <c r="O85">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P85" cm="1">
-        <f t="array" aca="1" ref="P85" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P85">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q85">
         <v>7.19</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15.75">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5182,15 +5152,15 @@
       <c r="O86">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P86" cm="1">
-        <f t="array" aca="1" ref="P86" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.05</v>
+      <c r="P86">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q86">
         <v>6.61</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15.75">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5228,7 +5198,7 @@
         <v>0.5</v>
       </c>
       <c r="M87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N87">
@@ -5237,15 +5207,15 @@
       <c r="O87">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P87" cm="1">
-        <f t="array" aca="1" ref="P87" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.2000000000000003E-2</v>
+      <c r="P87">
+        <f t="shared" si="4"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q87">
         <v>6.58</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15.75">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5283,7 +5253,7 @@
         <v>0.64</v>
       </c>
       <c r="M88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N88">
@@ -5292,15 +5262,15 @@
       <c r="O88">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P88" cm="1">
-        <f t="array" aca="1" ref="P88" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>5.8000000000000003E-2</v>
+      <c r="P88">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q88">
         <v>6.77</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15.75">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5346,15 +5316,15 @@
       <c r="O89">
         <v>2.3E-2</v>
       </c>
-      <c r="P89" cm="1">
-        <f t="array" aca="1" ref="P89" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>4.5999999999999999E-2</v>
+      <c r="P89">
+        <f t="shared" si="4"/>
+        <v>2.3E-2</v>
       </c>
       <c r="Q89">
         <v>7.03</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.75">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5400,15 +5370,15 @@
       <c r="O90">
         <v>0.04</v>
       </c>
-      <c r="P90" cm="1">
-        <f t="array" aca="1" ref="P90" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.08</v>
+      <c r="P90">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="Q90">
         <v>6.38</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.75">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5416,7 @@
         <v>0.5</v>
       </c>
       <c r="M91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N91">
@@ -5455,15 +5425,15 @@
       <c r="O91">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P91" cm="1">
-        <f t="array" aca="1" ref="P91" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.6000000000000003E-2</v>
+      <c r="P91">
+        <f t="shared" si="4"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q91">
         <v>6.52</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15.75">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5501,7 +5471,7 @@
         <v>0.64</v>
       </c>
       <c r="M92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N92">
@@ -5510,15 +5480,15 @@
       <c r="O92">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P92" cm="1">
-        <f t="array" aca="1" ref="P92" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>8.2000000000000003E-2</v>
+      <c r="P92">
+        <f t="shared" si="4"/>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q92">
         <v>6.63</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15.75">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5564,15 +5534,15 @@
       <c r="O93">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P93" cm="1">
-        <f t="array" aca="1" ref="P93" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>6.8000000000000005E-2</v>
+      <c r="P93">
+        <f t="shared" si="4"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q93">
         <v>6.94</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15.75">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5618,15 +5588,15 @@
       <c r="O94">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P94" cm="1">
-        <f t="array" aca="1" ref="P94" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.128</v>
+      <c r="P94">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q94">
         <v>5.96</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.75">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5664,7 +5634,7 @@
         <v>0.5</v>
       </c>
       <c r="M95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N95">
@@ -5673,15 +5643,15 @@
       <c r="O95">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P95" cm="1">
-        <f t="array" aca="1" ref="P95" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.10199999999999999</v>
+      <c r="P95">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q95">
         <v>6.22</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15.75">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5719,7 +5689,7 @@
         <v>0.64</v>
       </c>
       <c r="M96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N96">
@@ -5728,15 +5698,15 @@
       <c r="O96">
         <v>6.3E-2</v>
       </c>
-      <c r="P96" cm="1">
-        <f t="array" aca="1" ref="P96" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.126</v>
+      <c r="P96">
+        <f t="shared" si="4"/>
+        <v>6.3E-2</v>
       </c>
       <c r="Q96">
         <v>6.39</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.75">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5782,9 +5752,9 @@
       <c r="O97">
         <v>0.05</v>
       </c>
-      <c r="P97" cm="1">
-        <f t="array" aca="1" ref="P97" ca="1">2*INDIRECT("O" &amp; ROW())</f>
-        <v>0.1</v>
+      <c r="P97">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
       </c>
       <c r="Q97">
         <v>6.66</v>

--- a/database/sidis/expdata/5040.xlsx
+++ b/database/sidis/expdata/5040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4B94B-A8BE-3143-AE9A-60751F813313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B912FB-97AF-254D-9894-BD97ED00C380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4490,7 +4490,7 @@
         <v>0.21</v>
       </c>
       <c r="N74">
-        <v>-0.08</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="O74">
         <v>1.7000000000000001E-2</v>
